--- a/PostMan API Testing.xlsx
+++ b/PostMan API Testing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles.kimaro.TIGO\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles.kimaro.TIGO\Documents\Git-GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27DF2D4-23EE-400F-8D89-C3FF54C20598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8632D73-8DF4-44CA-A109-2B27A482624E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DE385B9-115A-4CC1-A945-D3A85815BDA8}"/>
   </bookViews>
@@ -33,19 +33,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Json scripts to fetch value from response</t>
   </si>
   <si>
     <t>How to Parse XML Response in Postman (originl req in xml and response come in xml then it converted into json.</t>
   </si>
+  <si>
+    <t>Bonus Tip: The description fields that you’d normally use for your API documentation can be repurposed as test descriptions. It’s a great way to document your tests, so developers and testers know what’s being tested, what the expected output is, etc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,6 +65,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -88,10 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,6 +203,50 @@
         <a:xfrm>
           <a:off x="0" y="4029075"/>
           <a:ext cx="13009524" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>637146</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>66017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469BA86C-456F-4529-9B70-A87928D68818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11906250"/>
+          <a:ext cx="8228571" cy="5266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -499,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC494A9E-91DF-4F7E-8125-7FE7E163D195}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -520,6 +576,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
